--- a/заказы/статистика филиалы/2023/12,23/13,12,23 КИ/дв 13,12,23 млрсч.xlsx
+++ b/заказы/статистика филиалы/2023/12,23/13,12,23 КИ/дв 13,12,23 млрсч.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\12,23\13,12,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B077E2-3269-4369-87A5-CCFE38843DF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81F9F98-F441-434F-ACFD-EA599613441C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,6 +383,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -456,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -557,11 +559,209 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="28"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="28"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="28"/>
+      </right>
+      <top style="hair">
+        <color indexed="28"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="28"/>
+      </right>
+      <top style="hair">
+        <color indexed="28"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="28"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="28"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -622,6 +822,37 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -6868,7 +7099,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH9" sqref="AH9"/>
+      <selection pane="bottomLeft" activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -6899,7 +7130,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:33" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="12.95" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6950,16 +7181,16 @@
       <c r="Q3" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="T3" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="U3" s="38" t="s">
         <v>108</v>
       </c>
       <c r="V3" s="15" t="s">
@@ -7029,16 +7260,16 @@
       </c>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
-      <c r="R4" s="18">
+      <c r="R4" s="39">
         <v>1</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="40">
         <v>2</v>
       </c>
-      <c r="T4" s="18">
+      <c r="T4" s="40">
         <v>3</v>
       </c>
-      <c r="U4" s="18">
+      <c r="U4" s="41">
         <v>4</v>
       </c>
       <c r="V4" s="15" t="s">
@@ -7110,15 +7341,15 @@
         <f t="shared" si="1"/>
         <v>5323.3503999999975</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5" s="30">
         <f t="shared" si="1"/>
         <v>22730</v>
       </c>
-      <c r="R5" s="20"/>
+      <c r="R5" s="42"/>
       <c r="S5" s="20"/>
       <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20">
+      <c r="U5" s="43"/>
+      <c r="V5" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7202,15 +7433,15 @@
         <f>L6/5</f>
         <v>4.8323999999999998</v>
       </c>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24">
+      <c r="Q6" s="31"/>
+      <c r="R6" s="44">
         <f>Q6-S6-T6-U6</f>
         <v>0</v>
       </c>
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="34"/>
       <c r="X6" s="3">
         <f>(Q6+O6+G6)/P6</f>
         <v>18.260077808128464</v>
@@ -7294,17 +7525,17 @@
         <f t="shared" ref="P7:P70" si="6">L7/5</f>
         <v>67.391800000000003</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="31">
         <v>15</v>
       </c>
-      <c r="R7" s="24">
+      <c r="R7" s="44">
         <f t="shared" ref="R7:R70" si="7">Q7-S7-T7-U7</f>
         <v>15</v>
       </c>
       <c r="S7" s="24"/>
       <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="34"/>
       <c r="X7" s="3">
         <f t="shared" ref="X7:X70" si="8">(Q7+O7+G7)/P7</f>
         <v>10.968307716962597</v>
@@ -7394,10 +7625,10 @@
         <f t="shared" si="6"/>
         <v>84.515799999999999</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="31">
         <v>165</v>
       </c>
-      <c r="R8" s="24">
+      <c r="R8" s="44">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
@@ -7405,8 +7636,8 @@
         <v>65</v>
       </c>
       <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="34"/>
       <c r="X8" s="3">
         <f t="shared" si="8"/>
         <v>10.95072164021402</v>
@@ -7492,10 +7723,10 @@
         <f t="shared" si="6"/>
         <v>40.340400000000002</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="31">
         <v>145</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9" s="44">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
@@ -7503,8 +7734,8 @@
         <v>45</v>
       </c>
       <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="34"/>
       <c r="X9" s="3">
         <f t="shared" si="8"/>
         <v>10.967466857046533</v>
@@ -7590,17 +7821,17 @@
         <f t="shared" si="6"/>
         <v>26.4</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="31">
         <v>40</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R10" s="44">
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="S10" s="24"/>
       <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="34"/>
       <c r="X10" s="3">
         <f t="shared" si="8"/>
         <v>10.946969696969697</v>
@@ -7686,17 +7917,17 @@
         <f t="shared" si="6"/>
         <v>10.4</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="31">
         <v>20</v>
       </c>
-      <c r="R11" s="24">
+      <c r="R11" s="44">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="S11" s="24"/>
       <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="34"/>
       <c r="X11" s="3">
         <f t="shared" si="8"/>
         <v>10.576923076923077</v>
@@ -7778,17 +8009,17 @@
         <f t="shared" si="6"/>
         <v>7.2</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="31">
         <v>45</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12" s="44">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="S12" s="24"/>
       <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="34"/>
       <c r="X12" s="3">
         <f t="shared" si="8"/>
         <v>10.833333333333334</v>
@@ -7874,15 +8105,15 @@
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24">
+      <c r="Q13" s="31"/>
+      <c r="R13" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S13" s="24"/>
       <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="34"/>
       <c r="X13" s="3">
         <f t="shared" si="8"/>
         <v>14.428571428571429</v>
@@ -7966,17 +8197,17 @@
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="Q14" s="31">
         <v>25</v>
       </c>
-      <c r="R14" s="24">
+      <c r="R14" s="44">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="S14" s="24"/>
       <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="34"/>
       <c r="X14" s="3">
         <f t="shared" si="8"/>
         <v>10.8</v>
@@ -8062,10 +8293,10 @@
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="Q15" s="31">
         <v>155</v>
       </c>
-      <c r="R15" s="24">
+      <c r="R15" s="44">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
@@ -8073,8 +8304,8 @@
         <v>55</v>
       </c>
       <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="34"/>
       <c r="X15" s="3">
         <f t="shared" si="8"/>
         <v>10.8</v>
@@ -8164,10 +8395,10 @@
         <f t="shared" si="6"/>
         <v>34.4</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="Q16" s="31">
         <v>185</v>
       </c>
-      <c r="R16" s="24">
+      <c r="R16" s="44">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
@@ -8175,8 +8406,8 @@
         <v>85</v>
       </c>
       <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="34"/>
       <c r="X16" s="3">
         <f t="shared" si="8"/>
         <v>10.901162790697676</v>
@@ -8269,10 +8500,10 @@
         <f t="shared" si="6"/>
         <v>53.918800000000012</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="Q17" s="31">
         <v>310</v>
       </c>
-      <c r="R17" s="24">
+      <c r="R17" s="44">
         <f t="shared" si="7"/>
         <v>160</v>
       </c>
@@ -8280,8 +8511,8 @@
         <v>150</v>
       </c>
       <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="34"/>
       <c r="X17" s="3">
         <f t="shared" si="8"/>
         <v>10.880768859841092</v>
@@ -8371,10 +8602,10 @@
         <f t="shared" si="6"/>
         <v>620.19820000000004</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18" s="31">
         <v>3100</v>
       </c>
-      <c r="R18" s="24">
+      <c r="R18" s="44">
         <f t="shared" si="7"/>
         <v>900</v>
       </c>
@@ -8384,8 +8615,8 @@
       <c r="T18" s="24">
         <v>1000</v>
       </c>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="34"/>
       <c r="X18" s="3">
         <f t="shared" si="8"/>
         <v>10.457506971158574</v>
@@ -8474,10 +8705,10 @@
         <f t="shared" si="6"/>
         <v>94.859000000000009</v>
       </c>
-      <c r="Q19" s="24">
+      <c r="Q19" s="31">
         <v>550</v>
       </c>
-      <c r="R19" s="24">
+      <c r="R19" s="44">
         <f t="shared" si="7"/>
         <v>300</v>
       </c>
@@ -8485,8 +8716,8 @@
         <v>250</v>
       </c>
       <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="34"/>
       <c r="X19" s="3">
         <f t="shared" si="8"/>
         <v>10.812880169514754</v>
@@ -8576,10 +8807,10 @@
         <f t="shared" si="6"/>
         <v>801.92740000000003</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="Q20" s="31">
         <v>3300</v>
       </c>
-      <c r="R20" s="24">
+      <c r="R20" s="44">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
@@ -8589,8 +8820,8 @@
       <c r="T20" s="24">
         <v>1000</v>
       </c>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="34"/>
       <c r="X20" s="3">
         <f t="shared" si="8"/>
         <v>10.759921658743671</v>
@@ -8675,17 +8906,17 @@
         <f t="shared" si="6"/>
         <v>14.7964</v>
       </c>
-      <c r="Q21" s="24">
+      <c r="Q21" s="31">
         <v>60</v>
       </c>
-      <c r="R21" s="24">
+      <c r="R21" s="44">
         <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="S21" s="24"/>
       <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="34"/>
       <c r="X21" s="3">
         <f t="shared" si="8"/>
         <v>10.831283285123408</v>
@@ -8772,10 +9003,10 @@
         <f t="shared" si="6"/>
         <v>68.344799999999992</v>
       </c>
-      <c r="Q22" s="24">
+      <c r="Q22" s="31">
         <v>430</v>
       </c>
-      <c r="R22" s="24">
+      <c r="R22" s="44">
         <f t="shared" si="7"/>
         <v>230</v>
       </c>
@@ -8783,8 +9014,8 @@
         <v>200</v>
       </c>
       <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="34"/>
       <c r="X22" s="3">
         <f t="shared" si="8"/>
         <v>10.876262714939543</v>
@@ -8870,10 +9101,10 @@
         <f t="shared" si="6"/>
         <v>957.63919999999996</v>
       </c>
-      <c r="Q23" s="24">
+      <c r="Q23" s="31">
         <v>5800</v>
       </c>
-      <c r="R23" s="24">
+      <c r="R23" s="44">
         <f t="shared" si="7"/>
         <v>1800</v>
       </c>
@@ -8883,10 +9114,10 @@
       <c r="T23" s="24">
         <v>1000</v>
       </c>
-      <c r="U23" s="24">
+      <c r="U23" s="45">
         <v>1000</v>
       </c>
-      <c r="V23" s="24"/>
+      <c r="V23" s="34"/>
       <c r="X23" s="3">
         <f t="shared" si="8"/>
         <v>10.579754880543737</v>
@@ -8907,19 +9138,19 @@
         <f>VLOOKUP(A23,[1]TDSheet!$A:$P,16,0)</f>
         <v>625.2281999999999</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AD23" s="29">
         <f t="shared" si="10"/>
         <v>1800</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AE23" s="28">
         <f t="shared" si="11"/>
         <v>2000</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AF23" s="28">
         <f t="shared" si="12"/>
         <v>1000</v>
       </c>
-      <c r="AG23" s="3">
+      <c r="AG23" s="28">
         <f t="shared" si="13"/>
         <v>1000</v>
       </c>
@@ -8976,10 +9207,10 @@
         <f t="shared" si="6"/>
         <v>459.63479999999998</v>
       </c>
-      <c r="Q24" s="24">
+      <c r="Q24" s="31">
         <v>2300</v>
       </c>
-      <c r="R24" s="24">
+      <c r="R24" s="44">
         <f t="shared" si="7"/>
         <v>500</v>
       </c>
@@ -8989,8 +9220,8 @@
       <c r="T24" s="24">
         <v>1300</v>
       </c>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="34"/>
       <c r="X24" s="3">
         <f t="shared" si="8"/>
         <v>10.898748310615296</v>
@@ -9079,10 +9310,10 @@
         <f t="shared" si="6"/>
         <v>77.950199999999995</v>
       </c>
-      <c r="Q25" s="24">
+      <c r="Q25" s="31">
         <v>420</v>
       </c>
-      <c r="R25" s="24">
+      <c r="R25" s="44">
         <f t="shared" si="7"/>
         <v>220</v>
       </c>
@@ -9090,8 +9321,8 @@
         <v>200</v>
       </c>
       <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="34"/>
       <c r="X25" s="3">
         <f t="shared" si="8"/>
         <v>10.989644670571725</v>
@@ -9172,15 +9403,15 @@
         <f t="shared" si="6"/>
         <v>22.797599999999999</v>
       </c>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24">
+      <c r="Q26" s="31"/>
+      <c r="R26" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S26" s="24"/>
       <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="34"/>
       <c r="X26" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -9266,10 +9497,10 @@
         <f t="shared" si="6"/>
         <v>70.844399999999993</v>
       </c>
-      <c r="Q27" s="24">
+      <c r="Q27" s="31">
         <v>410</v>
       </c>
-      <c r="R27" s="24">
+      <c r="R27" s="44">
         <f t="shared" si="7"/>
         <v>210</v>
       </c>
@@ -9277,8 +9508,8 @@
         <v>200</v>
       </c>
       <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="34"/>
       <c r="X27" s="3">
         <f t="shared" si="8"/>
         <v>9.93060848846204</v>
@@ -9364,10 +9595,10 @@
         <f t="shared" si="6"/>
         <v>44.153800000000004</v>
       </c>
-      <c r="Q28" s="24">
+      <c r="Q28" s="31">
         <v>265</v>
       </c>
-      <c r="R28" s="24">
+      <c r="R28" s="44">
         <f t="shared" si="7"/>
         <v>165</v>
       </c>
@@ -9375,8 +9606,8 @@
         <v>100</v>
       </c>
       <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="34"/>
       <c r="X28" s="3">
         <f t="shared" si="8"/>
         <v>8.8980110432171173</v>
@@ -9462,17 +9693,17 @@
         <f t="shared" si="6"/>
         <v>13.543199999999999</v>
       </c>
-      <c r="Q29" s="24">
+      <c r="Q29" s="31">
         <v>70</v>
       </c>
-      <c r="R29" s="24">
+      <c r="R29" s="44">
         <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="S29" s="24"/>
       <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="34"/>
       <c r="X29" s="3">
         <f t="shared" si="8"/>
         <v>10.752185598676828</v>
@@ -9558,10 +9789,10 @@
         <f t="shared" si="6"/>
         <v>79.688200000000009</v>
       </c>
-      <c r="Q30" s="24">
+      <c r="Q30" s="31">
         <v>215</v>
       </c>
-      <c r="R30" s="24">
+      <c r="R30" s="44">
         <f t="shared" si="7"/>
         <v>115</v>
       </c>
@@ -9569,8 +9800,8 @@
         <v>100</v>
       </c>
       <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="34"/>
       <c r="X30" s="3">
         <f t="shared" si="8"/>
         <v>10.944255234777545</v>
@@ -9660,10 +9891,10 @@
         <f t="shared" si="6"/>
         <v>70.432600000000008</v>
       </c>
-      <c r="Q31" s="24">
+      <c r="Q31" s="31">
         <v>255</v>
       </c>
-      <c r="R31" s="24">
+      <c r="R31" s="44">
         <f t="shared" si="7"/>
         <v>155</v>
       </c>
@@ -9671,8 +9902,8 @@
         <v>100</v>
       </c>
       <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="34"/>
       <c r="X31" s="3">
         <f t="shared" si="8"/>
         <v>10.884632968256176</v>
@@ -9756,15 +9987,15 @@
         <f t="shared" si="6"/>
         <v>-0.3</v>
       </c>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24">
+      <c r="Q32" s="31"/>
+      <c r="R32" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S32" s="24"/>
       <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="34"/>
       <c r="X32" s="3">
         <f t="shared" si="8"/>
         <v>-308.86</v>
@@ -9854,10 +10085,10 @@
         <f t="shared" si="6"/>
         <v>144.38200000000001</v>
       </c>
-      <c r="Q33" s="24">
+      <c r="Q33" s="31">
         <v>650</v>
       </c>
-      <c r="R33" s="24">
+      <c r="R33" s="44">
         <f t="shared" si="7"/>
         <v>350</v>
       </c>
@@ -9865,8 +10096,8 @@
         <v>300</v>
       </c>
       <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="34"/>
       <c r="X33" s="3">
         <f t="shared" si="8"/>
         <v>10.694103143051073</v>
@@ -9950,10 +10181,10 @@
         <f t="shared" si="6"/>
         <v>51.315599999999996</v>
       </c>
-      <c r="Q34" s="24">
+      <c r="Q34" s="31">
         <v>200</v>
       </c>
-      <c r="R34" s="24">
+      <c r="R34" s="44">
         <f t="shared" si="7"/>
         <v>150</v>
       </c>
@@ -9961,8 +10192,8 @@
         <v>50</v>
       </c>
       <c r="T34" s="24"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="24"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="34"/>
       <c r="X34" s="3">
         <f t="shared" si="8"/>
         <v>10.943670150987225</v>
@@ -10048,17 +10279,17 @@
         <f t="shared" si="6"/>
         <v>23.993400000000001</v>
       </c>
-      <c r="Q35" s="24">
+      <c r="Q35" s="31">
         <v>10</v>
       </c>
-      <c r="R35" s="24">
+      <c r="R35" s="44">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="S35" s="24"/>
       <c r="T35" s="24"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="24"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="34"/>
       <c r="X35" s="3">
         <f t="shared" si="8"/>
         <v>10.967182641893187</v>
@@ -10148,10 +10379,10 @@
         <f t="shared" si="6"/>
         <v>35.037599999999998</v>
       </c>
-      <c r="Q36" s="24">
+      <c r="Q36" s="31">
         <v>210</v>
       </c>
-      <c r="R36" s="24">
+      <c r="R36" s="44">
         <f t="shared" si="7"/>
         <v>180</v>
       </c>
@@ -10159,8 +10390,8 @@
         <v>30</v>
       </c>
       <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="34"/>
       <c r="X36" s="3">
         <f t="shared" si="8"/>
         <v>9.6731796698404011</v>
@@ -10250,15 +10481,15 @@
         <f t="shared" si="6"/>
         <v>79.125599999999991</v>
       </c>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24">
+      <c r="Q37" s="31"/>
+      <c r="R37" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S37" s="24"/>
       <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="34"/>
       <c r="X37" s="3">
         <f t="shared" si="8"/>
         <v>14.893688009948741</v>
@@ -10348,17 +10579,17 @@
         <f t="shared" si="6"/>
         <v>80.416800000000009</v>
       </c>
-      <c r="Q38" s="24">
+      <c r="Q38" s="31">
         <v>170</v>
       </c>
-      <c r="R38" s="24">
+      <c r="R38" s="44">
         <f t="shared" si="7"/>
         <v>170</v>
       </c>
       <c r="S38" s="24"/>
       <c r="T38" s="24"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="24"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="34"/>
       <c r="X38" s="3">
         <f t="shared" si="8"/>
         <v>10.910083465146586</v>
@@ -10444,15 +10675,15 @@
         <f t="shared" si="6"/>
         <v>14.6374</v>
       </c>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24">
+      <c r="Q39" s="31"/>
+      <c r="R39" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S39" s="24"/>
       <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="34"/>
       <c r="X39" s="3">
         <f t="shared" si="8"/>
         <v>27.666047248828345</v>
@@ -10536,15 +10767,15 @@
         <f t="shared" si="6"/>
         <v>1.0007999999999995</v>
       </c>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24">
+      <c r="Q40" s="31"/>
+      <c r="R40" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S40" s="24"/>
       <c r="T40" s="24"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="34"/>
       <c r="X40" s="3">
         <f t="shared" si="8"/>
         <v>200.30575539568358</v>
@@ -10626,17 +10857,17 @@
         <f t="shared" si="6"/>
         <v>13.0168</v>
       </c>
-      <c r="Q41" s="24">
+      <c r="Q41" s="31">
         <v>80</v>
       </c>
-      <c r="R41" s="24">
+      <c r="R41" s="44">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="S41" s="24"/>
       <c r="T41" s="24"/>
-      <c r="U41" s="24"/>
-      <c r="V41" s="24"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="34"/>
       <c r="X41" s="3">
         <f t="shared" si="8"/>
         <v>7.7615082047815136</v>
@@ -10721,17 +10952,17 @@
         <f t="shared" si="6"/>
         <v>28.8</v>
       </c>
-      <c r="Q42" s="24">
+      <c r="Q42" s="31">
         <v>170</v>
       </c>
-      <c r="R42" s="24">
+      <c r="R42" s="44">
         <f t="shared" si="7"/>
         <v>170</v>
       </c>
       <c r="S42" s="24"/>
       <c r="T42" s="24"/>
-      <c r="U42" s="24"/>
-      <c r="V42" s="24"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="34"/>
       <c r="X42" s="3">
         <f t="shared" si="8"/>
         <v>5.9027777777777777</v>
@@ -10812,15 +11043,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24">
+      <c r="Q43" s="31"/>
+      <c r="R43" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S43" s="24"/>
       <c r="T43" s="24"/>
-      <c r="U43" s="24"/>
-      <c r="V43" s="24"/>
+      <c r="U43" s="45"/>
+      <c r="V43" s="34"/>
       <c r="X43" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -10907,17 +11138,17 @@
         <f t="shared" si="6"/>
         <v>65.29079999999999</v>
       </c>
-      <c r="Q44" s="24">
+      <c r="Q44" s="31">
         <v>355</v>
       </c>
-      <c r="R44" s="24">
+      <c r="R44" s="44">
         <f t="shared" si="7"/>
         <v>355</v>
       </c>
       <c r="S44" s="24"/>
       <c r="T44" s="24"/>
-      <c r="U44" s="24"/>
-      <c r="V44" s="24"/>
+      <c r="U44" s="45"/>
+      <c r="V44" s="34"/>
       <c r="X44" s="3">
         <f t="shared" si="8"/>
         <v>8.9068904041610786</v>
@@ -11004,17 +11235,17 @@
         <f t="shared" si="6"/>
         <v>20.399999999999999</v>
       </c>
-      <c r="Q45" s="24">
+      <c r="Q45" s="31">
         <v>125</v>
       </c>
-      <c r="R45" s="24">
+      <c r="R45" s="44">
         <f t="shared" si="7"/>
         <v>125</v>
       </c>
       <c r="S45" s="24"/>
       <c r="T45" s="24"/>
-      <c r="U45" s="24"/>
-      <c r="V45" s="24"/>
+      <c r="U45" s="45"/>
+      <c r="V45" s="34"/>
       <c r="X45" s="3">
         <f t="shared" si="8"/>
         <v>8.7745098039215694</v>
@@ -11107,17 +11338,17 @@
         <f t="shared" si="6"/>
         <v>158.19999999999999</v>
       </c>
-      <c r="Q46" s="24">
+      <c r="Q46" s="31">
         <v>850</v>
       </c>
-      <c r="R46" s="24">
+      <c r="R46" s="44">
         <f t="shared" si="7"/>
         <v>850</v>
       </c>
       <c r="S46" s="24"/>
       <c r="T46" s="24"/>
-      <c r="U46" s="24"/>
-      <c r="V46" s="24"/>
+      <c r="U46" s="45"/>
+      <c r="V46" s="34"/>
       <c r="X46" s="3">
         <f t="shared" si="8"/>
         <v>10.006321112515803</v>
@@ -11210,17 +11441,17 @@
         <f t="shared" si="6"/>
         <v>93.2</v>
       </c>
-      <c r="Q47" s="24">
+      <c r="Q47" s="31">
         <v>45</v>
       </c>
-      <c r="R47" s="24">
+      <c r="R47" s="44">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="S47" s="24"/>
       <c r="T47" s="24"/>
-      <c r="U47" s="24"/>
-      <c r="V47" s="24"/>
+      <c r="U47" s="45"/>
+      <c r="V47" s="34"/>
       <c r="X47" s="3">
         <f t="shared" si="8"/>
         <v>10.976394849785407</v>
@@ -11305,17 +11536,17 @@
         <f t="shared" si="6"/>
         <v>7.2983999999999991</v>
       </c>
-      <c r="Q48" s="24">
+      <c r="Q48" s="31">
         <v>45</v>
       </c>
-      <c r="R48" s="24">
+      <c r="R48" s="44">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
-      <c r="U48" s="24"/>
-      <c r="V48" s="24"/>
+      <c r="U48" s="45"/>
+      <c r="V48" s="34"/>
       <c r="X48" s="3">
         <f t="shared" si="8"/>
         <v>9.853940589718297</v>
@@ -11404,15 +11635,15 @@
         <f t="shared" si="6"/>
         <v>18.218799999999998</v>
       </c>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24">
+      <c r="Q49" s="31"/>
+      <c r="R49" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
-      <c r="U49" s="24"/>
-      <c r="V49" s="24"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="34"/>
       <c r="X49" s="3">
         <f t="shared" si="8"/>
         <v>11.442520912464049</v>
@@ -11497,15 +11728,15 @@
         <f t="shared" si="6"/>
         <v>17.376799999999999</v>
       </c>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24">
+      <c r="Q50" s="31"/>
+      <c r="R50" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
-      <c r="U50" s="24"/>
-      <c r="V50" s="24"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="34"/>
       <c r="X50" s="3">
         <f t="shared" si="8"/>
         <v>16.40491920261498</v>
@@ -11591,15 +11822,15 @@
         <f t="shared" si="6"/>
         <v>11.1174</v>
       </c>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24">
+      <c r="Q51" s="31"/>
+      <c r="R51" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S51" s="24"/>
       <c r="T51" s="24"/>
-      <c r="U51" s="24"/>
-      <c r="V51" s="24"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="34"/>
       <c r="X51" s="3">
         <f t="shared" si="8"/>
         <v>10.829330598881034</v>
@@ -11685,17 +11916,17 @@
         <f t="shared" si="6"/>
         <v>25.353000000000002</v>
       </c>
-      <c r="Q52" s="24">
+      <c r="Q52" s="31">
         <v>140</v>
       </c>
-      <c r="R52" s="24">
+      <c r="R52" s="44">
         <f t="shared" si="7"/>
         <v>140</v>
       </c>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
-      <c r="U52" s="24"/>
-      <c r="V52" s="24"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="34"/>
       <c r="X52" s="3">
         <f t="shared" si="8"/>
         <v>10.943951406145228</v>
@@ -11785,17 +12016,17 @@
         <f t="shared" si="6"/>
         <v>31.629399999999997</v>
       </c>
-      <c r="Q53" s="24">
+      <c r="Q53" s="31">
         <v>120</v>
       </c>
-      <c r="R53" s="24">
+      <c r="R53" s="44">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="S53" s="24"/>
       <c r="T53" s="24"/>
-      <c r="U53" s="24"/>
-      <c r="V53" s="24"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="34"/>
       <c r="X53" s="3">
         <f t="shared" si="8"/>
         <v>10.953543222444942</v>
@@ -11879,15 +12110,15 @@
         <f t="shared" si="6"/>
         <v>119.798</v>
       </c>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24">
+      <c r="Q54" s="31"/>
+      <c r="R54" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S54" s="24"/>
       <c r="T54" s="24"/>
-      <c r="U54" s="24"/>
-      <c r="V54" s="24"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="34"/>
       <c r="X54" s="3">
         <f t="shared" si="8"/>
         <v>12.653132773502062</v>
@@ -11980,17 +12211,17 @@
         <f t="shared" si="6"/>
         <v>118.2</v>
       </c>
-      <c r="Q55" s="24">
+      <c r="Q55" s="31">
         <v>450</v>
       </c>
-      <c r="R55" s="24">
+      <c r="R55" s="44">
         <f t="shared" si="7"/>
         <v>450</v>
       </c>
       <c r="S55" s="24"/>
       <c r="T55" s="24"/>
-      <c r="U55" s="24"/>
-      <c r="V55" s="24"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="34"/>
       <c r="X55" s="3">
         <f t="shared" si="8"/>
         <v>10.922165820642977</v>
@@ -12076,15 +12307,15 @@
         <f t="shared" si="6"/>
         <v>12.576800000000002</v>
       </c>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="24">
+      <c r="Q56" s="31"/>
+      <c r="R56" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S56" s="24"/>
       <c r="T56" s="24"/>
-      <c r="U56" s="24"/>
-      <c r="V56" s="24"/>
+      <c r="U56" s="45"/>
+      <c r="V56" s="34"/>
       <c r="X56" s="3">
         <f t="shared" si="8"/>
         <v>12.170663443801283</v>
@@ -12174,17 +12405,17 @@
         <f t="shared" si="6"/>
         <v>64.596000000000004</v>
       </c>
-      <c r="Q57" s="24">
+      <c r="Q57" s="31">
         <v>100</v>
       </c>
-      <c r="R57" s="24">
+      <c r="R57" s="44">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="S57" s="24"/>
       <c r="T57" s="24"/>
-      <c r="U57" s="24"/>
-      <c r="V57" s="24"/>
+      <c r="U57" s="45"/>
+      <c r="V57" s="34"/>
       <c r="X57" s="3">
         <f t="shared" si="8"/>
         <v>10.894869651371602</v>
@@ -12270,15 +12501,15 @@
         <f t="shared" si="6"/>
         <v>18.2</v>
       </c>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="24">
+      <c r="Q58" s="31"/>
+      <c r="R58" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S58" s="24"/>
       <c r="T58" s="24"/>
-      <c r="U58" s="24"/>
-      <c r="V58" s="24"/>
+      <c r="U58" s="45"/>
+      <c r="V58" s="34"/>
       <c r="X58" s="3">
         <f t="shared" si="8"/>
         <v>16.813186813186814</v>
@@ -12359,15 +12590,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q59" s="24"/>
-      <c r="R59" s="24">
+      <c r="Q59" s="31"/>
+      <c r="R59" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S59" s="24"/>
       <c r="T59" s="24"/>
-      <c r="U59" s="24"/>
-      <c r="V59" s="24"/>
+      <c r="U59" s="45"/>
+      <c r="V59" s="34"/>
       <c r="X59" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -12453,15 +12684,15 @@
         <f t="shared" si="6"/>
         <v>53.8</v>
       </c>
-      <c r="Q60" s="24"/>
-      <c r="R60" s="24">
+      <c r="Q60" s="31"/>
+      <c r="R60" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S60" s="24"/>
       <c r="T60" s="24"/>
-      <c r="U60" s="24"/>
-      <c r="V60" s="24"/>
+      <c r="U60" s="45"/>
+      <c r="V60" s="34"/>
       <c r="X60" s="3">
         <f t="shared" si="8"/>
         <v>14.052044609665428</v>
@@ -12542,15 +12773,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q61" s="24"/>
-      <c r="R61" s="24">
+      <c r="Q61" s="31"/>
+      <c r="R61" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S61" s="24"/>
       <c r="T61" s="24"/>
-      <c r="U61" s="24"/>
-      <c r="V61" s="24"/>
+      <c r="U61" s="45"/>
+      <c r="V61" s="34"/>
       <c r="X61" s="3" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
@@ -12625,17 +12856,17 @@
         <f t="shared" si="6"/>
         <v>14.9406</v>
       </c>
-      <c r="Q62" s="24">
+      <c r="Q62" s="31">
         <v>85</v>
       </c>
-      <c r="R62" s="24">
+      <c r="R62" s="44">
         <f t="shared" si="7"/>
         <v>85</v>
       </c>
       <c r="S62" s="24"/>
       <c r="T62" s="24"/>
-      <c r="U62" s="24"/>
-      <c r="V62" s="24"/>
+      <c r="U62" s="45"/>
+      <c r="V62" s="34"/>
       <c r="X62" s="3">
         <f t="shared" si="8"/>
         <v>5.6891958823608153</v>
@@ -12720,15 +12951,15 @@
         <f t="shared" si="6"/>
         <v>7.4956000000000005</v>
       </c>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="24">
+      <c r="Q63" s="31"/>
+      <c r="R63" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S63" s="24"/>
       <c r="T63" s="24"/>
-      <c r="U63" s="24"/>
-      <c r="V63" s="24"/>
+      <c r="U63" s="45"/>
+      <c r="V63" s="34"/>
       <c r="X63" s="3">
         <f t="shared" si="8"/>
         <v>17.320961630823415</v>
@@ -12813,15 +13044,15 @@
         <f t="shared" si="6"/>
         <v>4.5956000000000001</v>
       </c>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="24">
+      <c r="Q64" s="31"/>
+      <c r="R64" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S64" s="24"/>
       <c r="T64" s="24"/>
-      <c r="U64" s="24"/>
-      <c r="V64" s="24"/>
+      <c r="U64" s="45"/>
+      <c r="V64" s="34"/>
       <c r="X64" s="3">
         <f t="shared" si="8"/>
         <v>13.030072243015058</v>
@@ -12910,15 +13141,15 @@
         <f t="shared" si="6"/>
         <v>21.4</v>
       </c>
-      <c r="Q65" s="24"/>
-      <c r="R65" s="24">
+      <c r="Q65" s="31"/>
+      <c r="R65" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S65" s="24"/>
       <c r="T65" s="24"/>
-      <c r="U65" s="24"/>
-      <c r="V65" s="24"/>
+      <c r="U65" s="45"/>
+      <c r="V65" s="34"/>
       <c r="X65" s="3">
         <f t="shared" si="8"/>
         <v>30.560747663551403</v>
@@ -13003,17 +13234,17 @@
         <f t="shared" si="6"/>
         <v>18.600000000000001</v>
       </c>
-      <c r="Q66" s="24">
+      <c r="Q66" s="31">
         <v>110</v>
       </c>
-      <c r="R66" s="24">
+      <c r="R66" s="44">
         <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="S66" s="24"/>
       <c r="T66" s="24"/>
-      <c r="U66" s="24"/>
-      <c r="V66" s="24"/>
+      <c r="U66" s="45"/>
+      <c r="V66" s="34"/>
       <c r="X66" s="3">
         <f t="shared" si="8"/>
         <v>5.9139784946236551</v>
@@ -13086,15 +13317,15 @@
         <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="24">
+      <c r="Q67" s="31"/>
+      <c r="R67" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S67" s="24"/>
       <c r="T67" s="24"/>
-      <c r="U67" s="24"/>
-      <c r="V67" s="24"/>
+      <c r="U67" s="45"/>
+      <c r="V67" s="34"/>
       <c r="X67" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -13173,17 +13404,17 @@
         <f t="shared" si="6"/>
         <v>8.7932000000000006</v>
       </c>
-      <c r="Q68" s="24">
+      <c r="Q68" s="31">
         <v>15</v>
       </c>
-      <c r="R68" s="24">
+      <c r="R68" s="44">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
-      <c r="U68" s="24"/>
-      <c r="V68" s="24"/>
+      <c r="U68" s="45"/>
+      <c r="V68" s="34"/>
       <c r="X68" s="3">
         <f t="shared" si="8"/>
         <v>10.767183732884501</v>
@@ -13272,15 +13503,15 @@
         <f t="shared" si="6"/>
         <v>53.4</v>
       </c>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="24">
+      <c r="Q69" s="31"/>
+      <c r="R69" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S69" s="24"/>
       <c r="T69" s="24"/>
-      <c r="U69" s="24"/>
-      <c r="V69" s="24"/>
+      <c r="U69" s="45"/>
+      <c r="V69" s="34"/>
       <c r="X69" s="3">
         <f t="shared" si="8"/>
         <v>15.97378277153558</v>
@@ -13364,17 +13595,17 @@
         <f t="shared" si="6"/>
         <v>20.646999999999998</v>
       </c>
-      <c r="Q70" s="24">
+      <c r="Q70" s="31">
         <v>110</v>
       </c>
-      <c r="R70" s="24">
+      <c r="R70" s="44">
         <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="S70" s="24"/>
       <c r="T70" s="24"/>
-      <c r="U70" s="24"/>
-      <c r="V70" s="24"/>
+      <c r="U70" s="45"/>
+      <c r="V70" s="34"/>
       <c r="X70" s="3">
         <f t="shared" si="8"/>
         <v>6.4723688671477699</v>
@@ -13458,17 +13689,17 @@
         <f t="shared" ref="P71:P80" si="16">L71/5</f>
         <v>20.588000000000001</v>
       </c>
-      <c r="Q71" s="24">
+      <c r="Q71" s="31">
         <v>110</v>
       </c>
-      <c r="R71" s="24">
+      <c r="R71" s="44">
         <f t="shared" ref="R71:R80" si="17">Q71-S71-T71-U71</f>
         <v>110</v>
       </c>
       <c r="S71" s="24"/>
       <c r="T71" s="24"/>
-      <c r="U71" s="24"/>
-      <c r="V71" s="24"/>
+      <c r="U71" s="45"/>
+      <c r="V71" s="34"/>
       <c r="X71" s="3">
         <f t="shared" ref="X71:X80" si="18">(Q71+O71+G71)/P71</f>
         <v>6.4423936273557407</v>
@@ -13548,17 +13779,17 @@
         <f t="shared" si="16"/>
         <v>22</v>
       </c>
-      <c r="Q72" s="26">
+      <c r="Q72" s="32">
         <v>130</v>
       </c>
-      <c r="R72" s="26">
+      <c r="R72" s="46">
         <f t="shared" si="17"/>
         <v>130</v>
       </c>
       <c r="S72" s="26"/>
       <c r="T72" s="26"/>
-      <c r="U72" s="26"/>
-      <c r="V72" s="26"/>
+      <c r="U72" s="47"/>
+      <c r="V72" s="35"/>
       <c r="X72" s="3">
         <f t="shared" si="18"/>
         <v>9.954545454545455</v>
@@ -13641,17 +13872,17 @@
         <f t="shared" si="16"/>
         <v>29.2</v>
       </c>
-      <c r="Q73" s="26">
+      <c r="Q73" s="32">
         <v>170</v>
       </c>
-      <c r="R73" s="26">
+      <c r="R73" s="46">
         <f t="shared" si="17"/>
         <v>170</v>
       </c>
       <c r="S73" s="26"/>
       <c r="T73" s="26"/>
-      <c r="U73" s="26"/>
-      <c r="V73" s="26"/>
+      <c r="U73" s="47"/>
+      <c r="V73" s="35"/>
       <c r="X73" s="3">
         <f t="shared" si="18"/>
         <v>5.9589041095890414</v>
@@ -13736,15 +13967,15 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q74" s="24"/>
-      <c r="R74" s="24">
+      <c r="Q74" s="31"/>
+      <c r="R74" s="44">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S74" s="24"/>
       <c r="T74" s="24"/>
-      <c r="U74" s="24"/>
-      <c r="V74" s="24"/>
+      <c r="U74" s="45"/>
+      <c r="V74" s="34"/>
       <c r="X74" s="3" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
@@ -13821,15 +14052,15 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q75" s="24"/>
-      <c r="R75" s="24">
+      <c r="Q75" s="31"/>
+      <c r="R75" s="44">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S75" s="24"/>
       <c r="T75" s="24"/>
-      <c r="U75" s="24"/>
-      <c r="V75" s="24"/>
+      <c r="U75" s="45"/>
+      <c r="V75" s="34"/>
       <c r="X75" s="3" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
@@ -13908,15 +14139,15 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q76" s="24"/>
-      <c r="R76" s="24">
+      <c r="Q76" s="31"/>
+      <c r="R76" s="44">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S76" s="24"/>
       <c r="T76" s="24"/>
-      <c r="U76" s="24"/>
-      <c r="V76" s="24"/>
+      <c r="U76" s="45"/>
+      <c r="V76" s="34"/>
       <c r="X76" s="3" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
@@ -13996,15 +14227,15 @@
         <f t="shared" si="16"/>
         <v>9.6</v>
       </c>
-      <c r="Q77" s="24"/>
-      <c r="R77" s="24">
+      <c r="Q77" s="31"/>
+      <c r="R77" s="44">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S77" s="24"/>
       <c r="T77" s="24"/>
-      <c r="U77" s="24"/>
-      <c r="V77" s="24"/>
+      <c r="U77" s="45"/>
+      <c r="V77" s="34"/>
       <c r="X77" s="3">
         <f t="shared" si="18"/>
         <v>20.625</v>
@@ -14086,15 +14317,15 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q78" s="24"/>
-      <c r="R78" s="24">
+      <c r="Q78" s="31"/>
+      <c r="R78" s="44">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S78" s="24"/>
       <c r="T78" s="24"/>
-      <c r="U78" s="24"/>
-      <c r="V78" s="24"/>
+      <c r="U78" s="45"/>
+      <c r="V78" s="34"/>
       <c r="X78" s="3" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
@@ -14171,15 +14402,15 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q79" s="24"/>
-      <c r="R79" s="24">
+      <c r="Q79" s="31"/>
+      <c r="R79" s="44">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S79" s="24"/>
       <c r="T79" s="24"/>
-      <c r="U79" s="24"/>
-      <c r="V79" s="24"/>
+      <c r="U79" s="45"/>
+      <c r="V79" s="34"/>
       <c r="X79" s="3" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
@@ -14214,7 +14445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:33" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>84</v>
       </c>
@@ -14253,15 +14484,15 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q80" s="24"/>
-      <c r="R80" s="24">
+      <c r="Q80" s="31"/>
+      <c r="R80" s="48">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S80" s="24"/>
-      <c r="T80" s="24"/>
-      <c r="U80" s="24"/>
-      <c r="V80" s="24"/>
+      <c r="S80" s="49"/>
+      <c r="T80" s="49"/>
+      <c r="U80" s="50"/>
+      <c r="V80" s="34"/>
       <c r="X80" s="3" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
